--- a/TEST CASES/Project Collaboration Tool- Test Scenario and Test Cases.xlsx
+++ b/TEST CASES/Project Collaboration Tool- Test Scenario and Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aspire\TEST CASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1CB84-2F53-4EC8-8703-3B68CA69E268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C64076-AE46-4258-A338-F8320DDD96DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCT TEST CASES" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="189">
   <si>
     <t xml:space="preserve">Type of Testing: Smoke/Functional/Integration/NFR/System Testing/UAT  </t>
   </si>
@@ -665,6 +665,161 @@
     <t xml:space="preserve">The project is deleted from the system without any errors.
 All associated data related to the project are also removed as expected.
 </t>
+  </si>
+  <si>
+    <t>Invalid User Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the web browser and navigate to the login page of the project collaboration tool.
+2. Enter an invalid username and password combination in the respective input fields.
+3. Click on the "Login" button to submit the login credentials.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Username: invaliduser@example.com
+Invalid Password: InvalidPass123
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The login attempt fails, and the user remains on the login page.
+An error message indicating invalid credentials is displayed to the user.
+</t>
+  </si>
+  <si>
+    <t>The login attempt fails as expected, and an error message is displayed indicating invalid credentials.</t>
+  </si>
+  <si>
+    <t>Blank Username and Password Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the web browser and navigate to the login page of the project collaboration tool.
+2. Leave the username and password fields blank.
+3. Click on the "Login" button.
+</t>
+  </si>
+  <si>
+    <t>No Input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system displays an error message indicating that both username and password are required.
+The user remains on the login page.
+</t>
+  </si>
+  <si>
+    <t>The system displays the expected error message for blank fields.</t>
+  </si>
+  <si>
+    <t>Invalid Username Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the web browser and navigate to the login page of the project collaboration tool.
+2. Enter an invalid email format (e.g., "invalidemail") in the username field.
+3. Enter a valid password.
+4. Click on the "Login" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system displays an error message indicating that the username format is invalid.
+The user remains on the login page.
+</t>
+  </si>
+  <si>
+    <t>The system displays the expected error message for an invalid username format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: rosaryabilash@gmai
+Password: Test@123
+</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the web browser and navigate to the login page of the project collaboration tool.
+2. Enter a valid username.
+3. Enter an invalid password (e.g., less than minimum length).
+4. Click on the "Login" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: rosaryabilash@gmail.com
+Password: Test
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system displays an error message indicating that the password is invalid.
+The user remains on the login page.
+</t>
+  </si>
+  <si>
+    <t>The system displays the expected error message for an invalid password.</t>
+  </si>
+  <si>
+    <t>Login as Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the web browser and navigate to the login page of the project collaboration tool.
+2. Enter the username and password for an administrator account.
+3. Click on the "Login" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: rosaryabilash@gmail.com
+Role: Admin
+Password: Test
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system successfully authenticates the administrator.
+The user is redirected to the dashboard page with administrative privileges.
+</t>
+  </si>
+  <si>
+    <t>Login as Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the web browser and navigate to the login page of the project collaboration tool.
+2. Enter the username and password for a project manager account.
+3. Click on the "Login" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username: rosaryabilash@gmail.com
+Role: Team Manager
+Password: Test
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system successfully authenticates the project manager.
+The user is redirected to the dashboard page with project management privileges.
+</t>
+  </si>
+  <si>
+    <t>TC-1001</t>
+  </si>
+  <si>
+    <t>TC-1101</t>
+  </si>
+  <si>
+    <t>TC-1201</t>
+  </si>
+  <si>
+    <t>TC-1301</t>
+  </si>
+  <si>
+    <t>TC-1401</t>
+  </si>
+  <si>
+    <t>TC-1501</t>
+  </si>
+  <si>
+    <t>TC-1601</t>
+  </si>
+  <si>
+    <t>TS-17</t>
+  </si>
+  <si>
+    <t>TC-1701</t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1357,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1240,48 +1437,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1636,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FFA102-720D-451A-95DE-5B462F9CBD7E}">
-  <dimension ref="B1:K24"/>
+  <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1659,102 +1814,102 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="2:11" ht="27.6">
       <c r="B9" s="10" t="s">
@@ -1820,7 +1975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="88.2">
+    <row r="11" spans="2:11" ht="180.6" customHeight="1">
       <c r="B11" s="17" t="s">
         <v>8</v>
       </c>
@@ -1852,39 +2007,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="226.8">
+    <row r="12" spans="2:11" ht="180.6" customHeight="1">
       <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>49</v>
+      <c r="D12" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K12" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="163.80000000000001">
+    <row r="13" spans="2:11" ht="180.6" customHeight="1">
       <c r="B13" s="17" t="s">
         <v>10</v>
       </c>
@@ -1892,63 +2047,63 @@
         <v>42</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>57</v>
+        <v>100</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="176.4">
+    <row r="14" spans="2:11" ht="180.6" customHeight="1">
       <c r="B14" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>112</v>
+      <c r="D14" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>114</v>
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="163.80000000000001">
+    <row r="15" spans="2:11" ht="180.6" customHeight="1">
       <c r="B15" s="17" t="s">
         <v>12</v>
       </c>
@@ -1956,31 +2111,31 @@
         <v>44</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="365.4">
+    <row r="16" spans="2:11" ht="180.6" customHeight="1">
       <c r="B16" s="17" t="s">
         <v>13</v>
       </c>
@@ -1988,31 +2143,31 @@
         <v>45</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="189">
+    <row r="17" spans="2:11" ht="180.6" customHeight="1">
       <c r="B17" s="17" t="s">
         <v>14</v>
       </c>
@@ -2020,31 +2175,31 @@
         <v>46</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>135</v>
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="214.2">
+    <row r="18" spans="2:11" ht="88.2">
       <c r="B18" s="17" t="s">
         <v>15</v>
       </c>
@@ -2052,157 +2207,382 @@
         <v>47</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>141</v>
+        <v>99</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>145</v>
+        <v>102</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="126">
+    <row r="19" spans="2:11" ht="239.4">
       <c r="B19" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>133</v>
+        <v>180</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>149</v>
+        <v>93</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="28" t="s">
+    <row r="20" spans="2:11" ht="163.80000000000001">
+      <c r="B20" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="176.4">
+      <c r="B21" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="163.80000000000001">
+      <c r="B22" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="365.4">
+      <c r="B23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="189">
+      <c r="B24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="214.2">
+      <c r="B25" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="126">
+      <c r="B26" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="19" t="s">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="45"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="2" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F28" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="19" t="s">
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="19" t="s">
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="21" t="s">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="2:11" ht="15" thickBot="1">
-      <c r="B24" s="22" t="s">
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="2:11" ht="15" thickBot="1">
+      <c r="B31" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F30:K30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:K29"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F23:K23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="F22:K22"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2211,7 +2591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CCF6E8F-24A6-4F8B-8E3C-A1B890F5E4F3}">
   <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
@@ -2235,11 +2615,11 @@
       <c r="E2" s="48"/>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="49"/>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1">
@@ -2481,29 +2861,29 @@
       <c r="E24" s="58"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" ht="15" thickBot="1">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="7" t="s">
         <v>19</v>
       </c>
